--- a/biology/Médecine/Karl_Peter/Karl_Peter.xlsx
+++ b/biology/Médecine/Karl_Peter/Karl_Peter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl Georg Peter (né le 2 juillet 1870 à Francfort-sur-l'Oder[1],[2] et mort le 16 mars 1955 à Fischbachau) est un anatomiste allemand. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl Georg Peter (né le 2 juillet 1870 à Francfort-sur-l'Oder, et mort le 16 mars 1955 à Fischbachau) est un anatomiste allemand. 
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter grandit à Meissen. Il obtient son diplôme de fin d'études en 1890 à l'école princière et d'État de Saint Afra à Meissen[1]. En 1890, il commence à étudier la médecine. D'abord à l'Université de Fribourg, puis à l'Université de Kiel, puis à l'Université de Leipzig, puis à l'Université de Marbourg et enfin à Fribourg. À Fribourg, Peter obtient son doctorat en 1895 à l'Institut d'anatomie avec sa thèse "La colonne vertébrale des gymnophions"[3]. Son superviseur est Robert Wiedersheim (de). De 1897 à 1904, Peter occupe un poste d'assistant et de second prosecteur à l'Université de Breslau avec Johann Karl Franz Hasse, avec ne s'entend cependant pas bien[2]. En 1898, il rédige à Breslau une thèse sur l'origine et la forme fonctionnelle du crâne du Ichthyophis glutinosus[4]. En 1904, Peter passe à l'Université de Wurtzbourg avec Philipp Stöhr (de). Il recommande l'embryologiste Robert Bonnet à Greifswald. En 1905, Peter devient professeur associé et en 1917 professeur titulaire d'anatomie à l'Université de Greifswald. De 1917 à 1935, il est directeur de l'Institut d'anatomie de Greifswald. Peter prend sa retraite en 1935. Après sa retraite, il poursuit ses recherches à l'institut et l'enseignement pendant la Seconde Guerre mondiale (1939-1945). En 1945 Peter choisit Birkenstein en Bavière comme lieu de retraite. Lorsque l'enseignement repris à l'Université de Munich en 1946, Benno Romeis (de) fait appel à lui pour des conférences et des exercices. À partir de 1946, il est impliqué comme professeur titulaire dans la reconstruction de l'institut d'anatomie de Munich. 
-Il est connu avec Gustav Born (de), Alfred Schaper (de) et Hermann Triepel (de) pour l'amélioration de la méthode de préparation des modèles anatomiques[5]. Il est spécialiste d'embryologie et d'anatomie microscopique. 
-En 1932, il est admis à l'Académie Léopoldina, maisdémissionne en 1935 parce qu'ils refusent d'imprimer une de ses œuvres[6]   
-Pour son 85e anniversaire, la Société d'anatomie avait prévu d'honorer un hommage et avait demandé la Grand-croix de l'ordre du Mérite de la République fédérale d'Allemagne. Karl Peter décède à l'âge de 84 ans d'une grave maladie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter grandit à Meissen. Il obtient son diplôme de fin d'études en 1890 à l'école princière et d'État de Saint Afra à Meissen. En 1890, il commence à étudier la médecine. D'abord à l'Université de Fribourg, puis à l'Université de Kiel, puis à l'Université de Leipzig, puis à l'Université de Marbourg et enfin à Fribourg. À Fribourg, Peter obtient son doctorat en 1895 à l'Institut d'anatomie avec sa thèse "La colonne vertébrale des gymnophions". Son superviseur est Robert Wiedersheim (de). De 1897 à 1904, Peter occupe un poste d'assistant et de second prosecteur à l'Université de Breslau avec Johann Karl Franz Hasse, avec ne s'entend cependant pas bien. En 1898, il rédige à Breslau une thèse sur l'origine et la forme fonctionnelle du crâne du Ichthyophis glutinosus. En 1904, Peter passe à l'Université de Wurtzbourg avec Philipp Stöhr (de). Il recommande l'embryologiste Robert Bonnet à Greifswald. En 1905, Peter devient professeur associé et en 1917 professeur titulaire d'anatomie à l'Université de Greifswald. De 1917 à 1935, il est directeur de l'Institut d'anatomie de Greifswald. Peter prend sa retraite en 1935. Après sa retraite, il poursuit ses recherches à l'institut et l'enseignement pendant la Seconde Guerre mondiale (1939-1945). En 1945 Peter choisit Birkenstein en Bavière comme lieu de retraite. Lorsque l'enseignement repris à l'Université de Munich en 1946, Benno Romeis (de) fait appel à lui pour des conférences et des exercices. À partir de 1946, il est impliqué comme professeur titulaire dans la reconstruction de l'institut d'anatomie de Munich. 
+Il est connu avec Gustav Born (de), Alfred Schaper (de) et Hermann Triepel (de) pour l'amélioration de la méthode de préparation des modèles anatomiques. Il est spécialiste d'embryologie et d'anatomie microscopique. 
+En 1932, il est admis à l'Académie Léopoldina, maisdémissionne en 1935 parce qu'ils refusent d'imprimer une de ses œuvres   
+Pour son 85e anniversaire, la Société d'anatomie avait prévu d'honorer un hommage et avait demandé la Grand-croix de l'ordre du Mérite de la République fédérale d'Allemagne. Karl Peter décède à l'âge de 84 ans d'une grave maladie.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Karl Peter a participé à 162 publications, dont 10 livres et monographies. 23 thèses de doctorat ont été rédigées sous sa direction. 
 Herausgeber mit Joseph Becker u. a.: Handbuch der Anatomie des Kindes, München: Bergmann, ab 1927
